--- a/xlsx/a69_f46bUPPachuca.xlsx
+++ b/xlsx/a69_f46bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -142,17 +137,17 @@
     <t>Opinión</t>
   </si>
   <si>
+    <t xml:space="preserve"> Secretaria Academica (UPP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conforme a lo establecido en Capítulo V del Decreto Vigente de la Universidad, relativo al Consejo Consultivo, este es un Órgano Colegiado con las funciones de asesorar al Rector en materia académica y de conducción universitaria, así como en las normas relativas a la organización y funcionamiento académico, entre otras; hasta el momento no ha sido instalado puesto que los Consejos de Calidad y Social de la Institución, realizan el análisis y seguimiento de dichos temas como parte de sus funciones, motivo que ha contribuido a no realizar la instalación del Consejo Consultivo. </t>
-  </si>
-  <si>
-    <t>Abogado General (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -165,16 +160,12 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -220,21 +211,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -245,16 +234,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +546,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="77.7109375" customWidth="1"/>
+    <col min="11" max="11" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -563,38 +555,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -667,19 +659,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -716,31 +708,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -754,12 +746,11 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D101">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
